--- a/NPC_automator_input.xlsx
+++ b/NPC_automator_input.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/Documents/GitHub/public-automation/Automation-Public-Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C44CB249-0E24-2E44-B508-99ABAA5A3C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81DE4C1-3E79-844E-B5D6-0880B4EDEBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16940" yWindow="2880" windowWidth="34400" windowHeight="22900"/>
+    <workbookView xWindow="40120" yWindow="3720" windowWidth="34400" windowHeight="22900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC_automator_input" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>END OF FILE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Scene</t>
   </si>
@@ -82,7 +79,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -573,11 +570,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -932,11 +930,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -961,82 +959,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertRows="0"/>
